--- a/taxonomy_pipeline/tax_table_mapping/adl2019_troph_assignments.xlsx
+++ b/taxonomy_pipeline/tax_table_mapping/adl2019_troph_assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylancatlett/Documents/R/amplicon_bioinformatics/taxonomy_pipeline/tax_table_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B684283-1E57-9947-8CFD-ED17A9EDBCC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E0489-D507-B548-BC2C-D4A9B1478C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="460" windowWidth="25440" windowHeight="14440" activeTab="1" xr2:uid="{B44FD439-336E-5749-9CC8-6EE4A059BDB1}"/>
   </bookViews>
@@ -1375,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B87B9C-7B18-D04F-836C-05E1C4127F0F}">
   <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
